--- a/excel/violations_fine.xlsx
+++ b/excel/violations_fine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoProjects\RTULab\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoProjects\RTULab\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6DDA9-13F6-4C5A-96ED-865390DD1DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE03D6F-48E2-47DC-A36A-E4A42A857547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="28710" windowHeight="15570" xr2:uid="{CE2A2DA3-6B03-4556-913C-458E0B9F5BD1}"/>
+    <workbookView xWindow="90" yWindow="3390" windowWidth="28710" windowHeight="12210" xr2:uid="{CE2A2DA3-6B03-4556-913C-458E0B9F5BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>f938b151-30d5-495f-92b3-d222ade609e1</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>b938b151-30d5-495f-92b3-d222ade609e1</t>
+  </si>
+  <si>
+    <t>Превышение скорсоти 4000р.</t>
+  </si>
+  <si>
+    <t>Выезд на встречку 3100р.</t>
+  </si>
+  <si>
+    <t>Угон автомобиля 11000р.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,24 +410,24 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>4000</v>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3100</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>11000</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
